--- a/rmsapp.rmssysapi.service/Resources/UploadTemplates/RMSUploadTemplate-Quiz.xlsx
+++ b/rmsapp.rmssysapi.service/Resources/UploadTemplates/RMSUploadTemplate-Quiz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="13380" windowHeight="4340"/>
+    <workbookView xWindow="405" yWindow="45" windowWidth="13380" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>S.No</t>
   </si>
@@ -35,16 +35,16 @@
     <t>Text_Answer(s)</t>
   </si>
   <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
-    <t>Programm</t>
-  </si>
-  <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>SINGLECHOICE</t>
+  </si>
+  <si>
+    <t>MULTIPLECHOICE</t>
+  </si>
+  <si>
+    <t>PROGRAMM</t>
   </si>
 </sst>
 </file>
@@ -412,19 +412,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="63.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
   </sheetData>
@@ -460,40 +463,40 @@
   <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
       <formula1>QuestionType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5">
@@ -504,5 +507,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>